--- a/docentes/Medina Tolentino Elio - Estadisticos 20211.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Mat</t>
   </si>
@@ -76,163 +76,52 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDEZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>IXTACUA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>PALAGOT</t>
-  </si>
-  <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MELLADO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>ALEX SAUL</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
-    <t>GIOVANNA</t>
-  </si>
-  <si>
-    <t>SAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>LOGAN ZURIEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>DIANA AMEYALLI</t>
-  </si>
-  <si>
-    <t>ANUAR ANTONIO</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAHIR</t>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
   </si>
   <si>
     <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
   </si>
 </sst>
 </file>
@@ -636,16 +525,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.68000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -659,16 +551,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>60.61</v>
+      </c>
+      <c r="H3">
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -682,16 +577,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +648,7 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -773,7 +671,7 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -796,7 +694,7 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -858,16 +756,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.68000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -881,16 +782,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>60.61</v>
+      </c>
+      <c r="H3">
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -904,16 +808,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +830,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,131 +865,131 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920005</v>
+        <v>19330051920256</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920004</v>
+        <v>19330051920258</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920006</v>
+        <v>19330051920257</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920007</v>
+        <v>19330051920348</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920008</v>
+        <v>19330051920414</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920015</v>
+        <v>19330051920035</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1091,374 +998,6 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920012</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920011</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920017</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920021</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330061460390</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920025</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920027</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920029</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920030</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920031</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920035</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920038</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
         <v>7</v>
       </c>
     </row>

--- a/docentes/Medina Tolentino Elio - Estadisticos 20211.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 20211.xlsx
@@ -79,15 +79,15 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
     <t>CUAHUA</t>
   </si>
   <si>
@@ -97,15 +97,15 @@
     <t>GALEOTE</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
     <t>LUENGAS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>ERICA</t>
   </si>
   <si>
@@ -115,13 +115,13 @@
     <t>ALEXIS</t>
   </si>
   <si>
+    <t>JOCELYN BERENICE</t>
+  </si>
+  <si>
     <t>JELIN JANET</t>
   </si>
   <si>
     <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>JOCELYN BERENICE</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920348</v>
+        <v>19330051920035</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -946,18 +946,18 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920414</v>
+        <v>19330051920348</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920035</v>
+        <v>19330051920414</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -992,13 +992,13 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
